--- a/va_facility_data_2025-02-20/William S. Middleton Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''William%20S.%20Middleton%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/William S. Middleton Memorial Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''William%20S.%20Middleton%20Memorial%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R33d5dcf7bef74b09b81ec847b794cc63"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R46ee80c1ee3d4e399975b3aecdfdeed6"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R87ff1208a9ea4c3f98e1f7c9282a0040"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R7c97a1ff22934fb8bbc88c5200ea3c8d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb4f9e4f5ae7c4ed0be47352250e3ef80"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R771e4ff79e214f9d95e0527ea683bd4f"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Ra2bd0a29292a40db99fd7fbc1eb03cdb"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re391646a53ae46f3932f47999be7ed92"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6e5491b0892d48c4a5d214958f5c1117"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rf6cbb00aa264450e827fd16232f91d02"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0742fa06110e4cad9e16e8edeae2f298"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R02cca71d754e45bd8dd563f6b7239908"/>
   </x:sheets>
 </x:workbook>
 </file>
